--- a/biology/Médecine/1380_en_santé_et_médecine/1380_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1380_en_santé_et_médecine/1380_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1380_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1380_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1380 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1380_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1380_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>13 juillet : Bertrand du Guesclin meurt, sans doute d'une pneumonie[1].
-Jean t'Serclaes, évêque de Cambrai, fonde à Bruxelles en Brabant, dans la rue de Louvain, un hôpital dédié à saint Antoine et sainte Élisabeth, pour y recevoir « quelques vieilles femmes[2] ».
-Bonifacio Lupi (it) fonde à Florence, en Toscane, un hôpital dédié à saint Jean-Baptiste, mais bientôt dit « de Bonifacio (it) » du nom de son fondateur, et où sont accueillis des malades indigents[3].
-« Deux Londoniens sont mis au pilori pour avoir fait croire qu'ils étaient muets « en poussant des cris affreux, presque des rugissements » pour tromper les gens et les inciter à leur faire l'aumône, [et] des mendiants sont accusés de se mutiler, eux ou leurs enfants, pour susciter la compassion des passants[4] ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>13 juillet : Bertrand du Guesclin meurt, sans doute d'une pneumonie.
+Jean t'Serclaes, évêque de Cambrai, fonde à Bruxelles en Brabant, dans la rue de Louvain, un hôpital dédié à saint Antoine et sainte Élisabeth, pour y recevoir « quelques vieilles femmes ».
+Bonifacio Lupi (it) fonde à Florence, en Toscane, un hôpital dédié à saint Jean-Baptiste, mais bientôt dit « de Bonifacio (it) » du nom de son fondateur, et où sont accueillis des malades indigents.
+« Deux Londoniens sont mis au pilori pour avoir fait croire qu'ils étaient muets « en poussant des cris affreux, presque des rugissements » pour tromper les gens et les inciter à leur faire l'aumône, [et] des mendiants sont accusés de se mutiler, eux ou leurs enfants, pour susciter la compassion des passants ».</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1380_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1380_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Personnalité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1375-1380 : fl. Bertrand Ministralis, barbier à Avignon[5].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1375-1380 : fl. Bertrand Ministralis, barbier à Avignon.</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1380_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1380_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Vers 1380 : le médecin juif convers Mossé de Roquemaure (Juan d'Avignon) compose sa Sevillana medicina, traité de médecine et de diététique[6].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Vers 1380 : le médecin juif convers Mossé de Roquemaure (Juan d'Avignon) compose sa Sevillana medicina, traité de médecine et de diététique.</t>
         </is>
       </c>
     </row>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1380_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1380_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,13 +622,15 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>18 mars : Lydwine de Schiedam (morte en 1433), sainte et mystique catholique, patronne des personnes handicapées[7],[8].
-Vers 1380 : Giovanni de Concoregio (mort vers 1447-1448[9]), professeur de médecine à Milan et Pavie et probablement à Bologne et Florence[10].
-Vers 1380 : Jacques Despars (mort en 1458), médecin français, connu pour son commentaire du Canon d'Avicenne (1453[11]).
-Vers 1380 : Leonardo Bertapaglia (mort en 1463), médecin à Padoue[12], auteur d'un traité de chirurgie[13].
-Vers 1380 : Thomas Morstede (mort vers 1450), chirurgien anglais, au service d'Henri V, roi d'Angleterre[14].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>18 mars : Lydwine de Schiedam (morte en 1433), sainte et mystique catholique, patronne des personnes handicapées,.
+Vers 1380 : Giovanni de Concoregio (mort vers 1447-1448), professeur de médecine à Milan et Pavie et probablement à Bologne et Florence.
+Vers 1380 : Jacques Despars (mort en 1458), médecin français, connu pour son commentaire du Canon d'Avicenne (1453).
+Vers 1380 : Leonardo Bertapaglia (mort en 1463), médecin à Padoue, auteur d'un traité de chirurgie.
+Vers 1380 : Thomas Morstede (mort vers 1450), chirurgien anglais, au service d'Henri V, roi d'Angleterre.</t>
         </is>
       </c>
     </row>
